--- a/src/test/resources/Test Data/Walmart.xlsx
+++ b/src/test/resources/Test Data/Walmart.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amitf\eclipse-workspace\Jobinterview\Walmart\src\test\resources\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CBF2E7-9133-46AE-944E-53D91CBB35F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A890F8-B12E-4FEF-962A-F2D1888FF786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="1125" windowWidth="14400" windowHeight="10920" activeTab="1" xr2:uid="{7FD54B6C-E2B4-4DE3-AF45-AB1946330FCB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7FD54B6C-E2B4-4DE3-AF45-AB1946330FCB}"/>
   </bookViews>
   <sheets>
     <sheet name="credentials" sheetId="1" r:id="rId1"/>
     <sheet name="macys" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -501,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA27C55-2955-46B3-AF68-4F045DAEDA5C}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -539,4 +540,25 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B2EE04-1C56-4499-A590-FD34693B2751}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>